--- a/Inherit/Assets/RelacionComponentePersona.xlsx
+++ b/Inherit/Assets/RelacionComponentePersona.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\source\repos\Inherit\Inherit\bin\Debug\net6.0-windows\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DC1D7E-8B13-4A13-A472-82BA63338152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F05322-3921-4E63-A4C5-54B9D218A601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,16 +44,16 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Cantidad</t>
+    <t>IDCOMPONENTE</t>
   </si>
   <si>
     <t>IDPERSONA</t>
   </si>
   <si>
-    <t>IDCOMPONENTE</t>
+    <t>Porcentaje</t>
   </si>
   <si>
-    <t>Porcentaje</t>
+    <t>Cantidad</t>
   </si>
 </sst>
 </file>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F1" sqref="F1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,16 +421,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -446,23 +446,68 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="C4">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
     </row>
